--- a/biology/Médecine/Muscle_court_abducteur_du_pouce/Muscle_court_abducteur_du_pouce.xlsx
+++ b/biology/Médecine/Muscle_court_abducteur_du_pouce/Muscle_court_abducteur_du_pouce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court abducteur du pouce est un muscle intrinsèque de la main .C'est le muscle le plus superficiel des muscles de l'éminence thénar.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court abducteur du pouce se fixe sur le tubercule du scaphoïde et sur le rétinaculum des fléchisseurs.
 </t>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court abducteur du pouce est oblique vers le bas et le dehors.
 </t>
@@ -573,7 +589,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court abducteur du pouce s'insère sur la face externe de la base de la phalange proximale du pouce.
 </t>
@@ -604,7 +622,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court abducteur du pouce est innervé par le nerf du muscle court abducteur du pouce issu de la branche musculaire récurrente du nerf médian.
 </t>
@@ -635,7 +655,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court abducteur du pouce est vascularisé par l'arcade palmaire superficielle.
 </t>
@@ -666,7 +688,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court abducteur du pouce est abducteur de l'articulation carpo-métacarpienne du pouce.
 </t>
